--- a/Logs/GriffinLarry_1601_TimeManagement.xlsx
+++ b/Logs/GriffinLarry_1601_TimeManagement.xlsx
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="238" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" zoomScale="238" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,8 +805,12 @@
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="7">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
       <c r="D24" s="7">
         <f>B24-C24</f>
         <v>0</v>
@@ -816,33 +820,45 @@
       <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="7">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>15</v>
+      </c>
       <c r="D25" s="7">
         <f t="shared" ref="D25:D27" si="3">B25-C25</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="7">
+        <v>120</v>
+      </c>
+      <c r="C26" s="7">
+        <v>50</v>
+      </c>
       <c r="D26" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="7">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
       <c r="D27" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -851,15 +867,15 @@
       </c>
       <c r="B28">
         <f>SUM(B24:B27)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:D28" si="4">SUM(C24:C27)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">

--- a/Logs/GriffinLarry_1601_TimeManagement.xlsx
+++ b/Logs/GriffinLarry_1601_TimeManagement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t xml:space="preserve">Larry Griffin </t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Estimated pay (based on $45/hr)</t>
+  </si>
+  <si>
+    <t>estimated pay (based on $45/hr)</t>
+  </si>
+  <si>
+    <t>Being Paid for Your Work</t>
   </si>
 </sst>
 </file>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" zoomScale="238" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="238" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,7 +685,7 @@
         <v>220</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14" si="1">SUM(C7:C13)</f>
+        <f>SUM(C7:C13)</f>
         <v>360</v>
       </c>
       <c r="D14">
@@ -685,274 +694,361 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <f>45*B14</f>
+        <v>9900</v>
+      </c>
+      <c r="C15">
+        <f>45*C14</f>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7">
-        <f>B16-C16</f>
-        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B17" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" ref="D17:D21" si="2">B17-C17</f>
-        <v>0</v>
+        <f>B17-C17</f>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B18" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D18:D22" si="1">B18-C18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B19" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B20" s="7">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7">
+        <v>120</v>
+      </c>
+      <c r="C21" s="7">
+        <v>120</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B22" s="7">
         <v>25</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>20</v>
       </c>
-      <c r="D21" s="7">
-        <f t="shared" si="2"/>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <f>SUM(B16:B21)</f>
+      <c r="B23">
+        <f>SUM(B17:B22)</f>
         <v>255</v>
       </c>
-      <c r="C22">
-        <f>SUM(C16:C21)</f>
+      <c r="C23">
+        <f>SUM(C17:C22)</f>
         <v>239</v>
       </c>
-      <c r="D22">
-        <f>SUM(D16:D21)</f>
+      <c r="D23">
+        <f>SUM(D17:D22)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <f>45*B23</f>
+        <v>11475</v>
+      </c>
+      <c r="C24">
+        <f>45*C23</f>
+        <v>10755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7">
-        <f>B24-C24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="7">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>15</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" ref="D25:D27" si="3">B25-C25</f>
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26" s="7">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C26" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f>B26-C26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7">
         <v>20</v>
       </c>
       <c r="C27" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" s="7">
+        <f t="shared" ref="D27:D29" si="2">B27-C27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="7">
+        <v>120</v>
+      </c>
+      <c r="C28" s="7">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="7">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B26:B29)</f>
+        <v>170</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:D30" si="3">SUM(C26:C29)</f>
+        <v>85</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B24:B27)</f>
-        <v>170</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:D28" si="4">SUM(C24:C27)</f>
         <v>85</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <f>45*B30</f>
+        <v>7650</v>
+      </c>
+      <c r="C31">
+        <f>45*C30</f>
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7">
-        <f>B30-C30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7">
-        <f t="shared" ref="D31:D34" si="5">B31-C31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7">
+        <v>10</v>
+      </c>
       <c r="D33" s="7">
-        <f t="shared" si="5"/>
+        <f>B33-C33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="7">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7">
+        <v>15</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" ref="D34:D38" si="4">B34-C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10</v>
+      </c>
+      <c r="C35" s="7">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="7">
+        <v>10</v>
+      </c>
+      <c r="C36" s="7">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="7">
+        <v>60</v>
+      </c>
+      <c r="C37" s="7">
+        <v>50</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7">
+      <c r="B38" s="7">
+        <v>10</v>
+      </c>
+      <c r="C38" s="7">
+        <v>10</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <f>SUM(B33:B38)</f>
+        <v>115</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:D39" si="5">SUM(C33:C38)</f>
+        <v>95</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35">
-        <f>SUM(B30:B34)</f>
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:D35" si="6">SUM(C30:C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <f>45*B39</f>
+        <v>5175</v>
+      </c>
+      <c r="C40">
+        <f>45*C39</f>
+        <v>4275</v>
       </c>
     </row>
   </sheetData>
